--- a/xlsx/生物政治学_intext.xlsx
+++ b/xlsx/生物政治学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>生物学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_生物政治学</t>
+    <t>政策_政策_政治学_生物政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
